--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2254.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2254.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.191802560567844</v>
+        <v>1.052176713943481</v>
       </c>
       <c r="B1">
-        <v>2.31733021275387</v>
+        <v>2.659528255462646</v>
       </c>
       <c r="C1">
-        <v>6.775919365169863</v>
+        <v>5.747958660125732</v>
       </c>
       <c r="D1">
-        <v>2.42323783207654</v>
+        <v>2.116188287734985</v>
       </c>
       <c r="E1">
-        <v>1.187497345539289</v>
+        <v>1.199236750602722</v>
       </c>
     </row>
   </sheetData>
